--- a/Lakers.xlsx
+++ b/Lakers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="6340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="6340"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,1225 +862,1186 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C2" s="5">
+        <v>26</v>
+      </c>
       <c r="D2" s="5">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E2" s="5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5">
-        <v>6</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H2" s="5">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="I2" s="5">
         <v>27.1</v>
       </c>
+      <c r="I2" s="7">
+        <v>9.4</v>
+      </c>
       <c r="J2" s="7">
+        <v>18.7</v>
+      </c>
+      <c r="K2" s="5">
+        <v>50.4</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M2" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="N2" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="O2" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="P2" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>85.9</v>
+      </c>
+      <c r="R2" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S2" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="T2" s="7">
         <v>9.4</v>
       </c>
-      <c r="K2" s="7">
-        <v>18.7</v>
-      </c>
-      <c r="L2" s="5">
-        <v>50.4</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N2" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="O2" s="5">
-        <v>29.7</v>
-      </c>
-      <c r="P2" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R2" s="5">
-        <v>85.9</v>
-      </c>
-      <c r="S2" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T2" s="7">
-        <v>7.2</v>
-      </c>
       <c r="U2" s="7">
-        <v>9.4</v>
+        <v>3.2</v>
       </c>
       <c r="V2" s="7">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="W2" s="7">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="X2" s="7">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y2" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="Z2" s="7">
         <v>2.5</v>
       </c>
+      <c r="Z2" s="5">
+        <v>53.2</v>
+      </c>
       <c r="AA2" s="5">
-        <v>53.2</v>
+        <v>17</v>
       </c>
       <c r="AB2" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="5">
         <v>5.9</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C3" s="8">
+        <v>35</v>
+      </c>
       <c r="D3" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F3" s="8">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G3" s="8">
-        <v>6</v>
+        <v>34.9</v>
       </c>
       <c r="H3" s="8">
-        <v>34.9</v>
-      </c>
-      <c r="I3" s="8">
         <v>25.5</v>
       </c>
+      <c r="I3" s="10">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J3" s="10">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K3" s="10">
         <v>19.8</v>
       </c>
-      <c r="L3" s="8">
+      <c r="K3" s="8">
         <v>49.4</v>
       </c>
+      <c r="L3" s="10">
+        <v>2.1</v>
+      </c>
       <c r="M3" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="N3" s="10">
         <v>6.1</v>
       </c>
+      <c r="N3" s="8">
+        <v>35.1</v>
+      </c>
       <c r="O3" s="8">
-        <v>35.1</v>
+        <v>3.9</v>
       </c>
       <c r="P3" s="8">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="Q3" s="8">
-        <v>5.6</v>
-      </c>
-      <c r="R3" s="8">
         <v>69.7</v>
       </c>
+      <c r="R3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="S3" s="10">
-        <v>1.1000000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="T3" s="10">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="U3" s="10">
-        <v>7.8</v>
+        <v>10.7</v>
       </c>
       <c r="V3" s="10">
-        <v>10.7</v>
+        <v>3.7</v>
       </c>
       <c r="W3" s="10">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="X3" s="10">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Z3" s="10">
         <v>1.8</v>
       </c>
+      <c r="Z3" s="8">
+        <v>52.7</v>
+      </c>
       <c r="AA3" s="8">
-        <v>52.7</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AC3" s="8">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="8">
         <v>9.6</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C4" s="5">
+        <v>24</v>
+      </c>
       <c r="D4" s="5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5">
-        <v>4</v>
+        <v>24.3</v>
       </c>
       <c r="H4" s="5">
-        <v>24.3</v>
-      </c>
-      <c r="I4" s="5">
         <v>13.2</v>
       </c>
+      <c r="I4" s="7">
+        <v>4.9000000000000004</v>
+      </c>
       <c r="J4" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>43.6</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="M4" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K4" s="7">
-        <v>11.2</v>
-      </c>
-      <c r="L4" s="5">
-        <v>43.6</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="N4" s="5">
+        <v>34.6</v>
+      </c>
+      <c r="O4" s="5">
         <v>1.7</v>
       </c>
-      <c r="N4" s="7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O4" s="5">
-        <v>34.6</v>
-      </c>
       <c r="P4" s="5">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q4" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R4" s="5">
         <v>74.599999999999994</v>
       </c>
+      <c r="R4" s="7">
+        <v>0.7</v>
+      </c>
       <c r="S4" s="7">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="T4" s="7">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="U4" s="7">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="V4" s="7">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="W4" s="7">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="X4" s="7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="Z4" s="7">
         <v>1.8</v>
       </c>
+      <c r="Z4" s="5">
+        <v>19.600000000000001</v>
+      </c>
       <c r="AA4" s="5">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="5">
         <v>0</v>
       </c>
       <c r="AC4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C5" s="8">
+        <v>26</v>
+      </c>
       <c r="D5" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G5" s="8">
-        <v>7</v>
+        <v>25.3</v>
       </c>
       <c r="H5" s="8">
-        <v>25.3</v>
-      </c>
-      <c r="I5" s="8">
         <v>9.3000000000000007</v>
       </c>
+      <c r="I5" s="10">
+        <v>3.3</v>
+      </c>
       <c r="J5" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="K5" s="8">
+        <v>46.3</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="M5" s="10">
         <v>3.3</v>
       </c>
-      <c r="K5" s="10">
-        <v>7.2</v>
-      </c>
-      <c r="L5" s="8">
-        <v>46.3</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="N5" s="10">
-        <v>3.3</v>
+      <c r="N5" s="8">
+        <v>43.1</v>
       </c>
       <c r="O5" s="8">
-        <v>43.1</v>
+        <v>1.3</v>
       </c>
       <c r="P5" s="8">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="R5" s="8">
         <v>80.599999999999994</v>
       </c>
+      <c r="R5" s="10">
+        <v>0.6</v>
+      </c>
       <c r="S5" s="10">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="T5" s="10">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="U5" s="10">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V5" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Y5" s="10">
         <v>1.8</v>
       </c>
-      <c r="W5" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="Y5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="Z5" s="10">
-        <v>1.8</v>
+      <c r="Z5" s="8">
+        <v>16.600000000000001</v>
       </c>
       <c r="AA5" s="8">
-        <v>16.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="8">
         <v>0</v>
       </c>
       <c r="AC5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8">
         <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>43.4</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="M6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5">
-        <v>7</v>
-      </c>
-      <c r="H6" s="5">
-        <v>25.3</v>
-      </c>
-      <c r="I6" s="5">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J6" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>7.2</v>
-      </c>
-      <c r="L6" s="5">
-        <v>43.4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5</v>
+      <c r="N6" s="5">
+        <v>38.700000000000003</v>
       </c>
       <c r="O6" s="5">
-        <v>38.700000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="P6" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Q6" s="5">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="T6" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="V6" s="7">
         <v>0.8</v>
       </c>
-      <c r="R6" s="5">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="T6" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="U6" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="V6" s="7">
-        <v>1.4</v>
-      </c>
       <c r="W6" s="7">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="X6" s="7">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="Y6" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="Z6" s="7">
         <v>2.2000000000000002</v>
       </c>
+      <c r="Z6" s="5">
+        <v>19.2</v>
+      </c>
       <c r="AA6" s="5">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="5">
         <v>0</v>
       </c>
       <c r="AC6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="5">
         <v>6.1</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="G7" s="8">
+        <v>23.8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="J7" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="K7" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="N7" s="8">
         <v>30</v>
       </c>
-      <c r="D7" s="8">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8">
-        <v>20</v>
-      </c>
-      <c r="G7" s="8">
-        <v>6</v>
-      </c>
-      <c r="H7" s="8">
-        <v>23.8</v>
-      </c>
-      <c r="I7" s="8">
-        <v>8.1</v>
-      </c>
-      <c r="J7" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="K7" s="10">
-        <v>7.6</v>
-      </c>
-      <c r="L7" s="8">
-        <v>45.5</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="N7" s="10">
-        <v>2.7</v>
-      </c>
       <c r="O7" s="8">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="P7" s="8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="8">
+        <v>75</v>
+      </c>
+      <c r="R7" s="10">
         <v>0.5</v>
       </c>
-      <c r="R7" s="8">
-        <v>75</v>
-      </c>
       <c r="S7" s="10">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="T7" s="10">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="U7" s="10">
-        <v>2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V7" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="W7" s="10">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="X7" s="10">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="Y7" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Z7" s="10">
         <v>2.4</v>
       </c>
+      <c r="Z7" s="8">
+        <v>14.4</v>
+      </c>
       <c r="AA7" s="8">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="8">
         <v>0</v>
       </c>
       <c r="AC7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="8">
         <v>4.2</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5">
-        <v>33</v>
-      </c>
       <c r="G8" s="5">
-        <v>7</v>
+        <v>19.7</v>
       </c>
       <c r="H8" s="5">
-        <v>19.7</v>
-      </c>
-      <c r="I8" s="5">
         <v>7.7</v>
       </c>
+      <c r="I8" s="7">
+        <v>3.1</v>
+      </c>
       <c r="J8" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="K8" s="7">
         <v>4.2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="K8" s="5">
         <v>74.3</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.1</v>
       </c>
       <c r="M8" s="7">
         <v>0.1</v>
       </c>
-      <c r="N8" s="7">
-        <v>0.1</v>
+      <c r="N8" s="5">
+        <v>60</v>
       </c>
       <c r="O8" s="5">
-        <v>60</v>
+        <v>1.4</v>
       </c>
       <c r="P8" s="5">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q8" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="R8" s="5">
         <v>50.9</v>
       </c>
+      <c r="R8" s="7">
+        <v>2.4</v>
+      </c>
       <c r="S8" s="7">
-        <v>2.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T8" s="7">
-        <v>4.9000000000000004</v>
+        <v>7.3</v>
       </c>
       <c r="U8" s="7">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="V8" s="7">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="W8" s="7">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="X8" s="7">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="Z8" s="7">
         <v>3.3</v>
       </c>
+      <c r="Z8" s="5">
+        <v>21.8</v>
+      </c>
       <c r="AA8" s="5">
-        <v>21.8</v>
+        <v>4</v>
       </c>
       <c r="AB8" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="5">
         <v>3.1</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C9" s="8">
+        <v>33</v>
+      </c>
       <c r="D9" s="8">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="8">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G9" s="8">
-        <v>5</v>
+        <v>21.6</v>
       </c>
       <c r="H9" s="8">
-        <v>21.6</v>
-      </c>
-      <c r="I9" s="8">
         <v>7.6</v>
       </c>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
       <c r="J9" s="10">
-        <v>3</v>
-      </c>
-      <c r="K9" s="10">
         <v>7.3</v>
       </c>
-      <c r="L9" s="8">
+      <c r="K9" s="8">
         <v>40.6</v>
       </c>
+      <c r="L9" s="10">
+        <v>0.9</v>
+      </c>
       <c r="M9" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="N9" s="8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="8">
         <v>0.9</v>
       </c>
-      <c r="N9" s="10">
-        <v>2.6</v>
-      </c>
-      <c r="O9" s="8">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0.7</v>
-      </c>
       <c r="Q9" s="8">
+        <v>80</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="T9" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="U9" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="V9" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="W9" s="10">
         <v>0.9</v>
       </c>
-      <c r="R9" s="8">
-        <v>80</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="T9" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="U9" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="V9" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="W9" s="10">
-        <v>2.1</v>
-      </c>
       <c r="X9" s="10">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="Y9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Z9" s="10">
         <v>1.2</v>
       </c>
+      <c r="Z9" s="8">
+        <v>21.2</v>
+      </c>
       <c r="AA9" s="8">
-        <v>21.2</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="8">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C10" s="5">
+        <v>31</v>
+      </c>
       <c r="D10" s="5">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G10" s="5">
-        <v>7</v>
+        <v>16.8</v>
       </c>
       <c r="H10" s="5">
-        <v>16.8</v>
-      </c>
-      <c r="I10" s="5">
         <v>6.9</v>
       </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
       <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
         <v>4.8</v>
       </c>
-      <c r="L10" s="5">
+      <c r="K10" s="5">
         <v>62.7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.1</v>
       </c>
       <c r="M10" s="7">
         <v>0.1</v>
       </c>
-      <c r="N10" s="7">
-        <v>0.1</v>
+      <c r="N10" s="5">
+        <v>66.7</v>
       </c>
       <c r="O10" s="5">
-        <v>66.7</v>
+        <v>0.8</v>
       </c>
       <c r="P10" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>61.2</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="S10" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="T10" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="V10" s="7">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="R10" s="5">
-        <v>61.2</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="T10" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="U10" s="7">
-        <v>5.8</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0.7</v>
-      </c>
       <c r="W10" s="7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="X10" s="7">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y10" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="Z10" s="7">
         <v>2.5</v>
       </c>
+      <c r="Z10" s="5">
+        <v>20.9</v>
+      </c>
       <c r="AA10" s="5">
-        <v>20.9</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="5">
         <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C11" s="8">
+        <v>25</v>
+      </c>
       <c r="D11" s="8">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G11" s="8">
-        <v>6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H11" s="8">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I11" s="8">
         <v>5.9</v>
       </c>
+      <c r="I11" s="10">
+        <v>2.1</v>
+      </c>
       <c r="J11" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="K11" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L11" s="8">
+      <c r="K11" s="8">
         <v>44.4</v>
       </c>
+      <c r="L11" s="10">
+        <v>0.7</v>
+      </c>
       <c r="M11" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="N11" s="10">
         <v>1.9</v>
       </c>
+      <c r="N11" s="8">
+        <v>36.6</v>
+      </c>
       <c r="O11" s="8">
-        <v>36.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P11" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="R11" s="8">
         <v>78</v>
       </c>
+      <c r="R11" s="10">
+        <v>0.3</v>
+      </c>
       <c r="S11" s="10">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="T11" s="10">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U11" s="10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V11" s="10">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="W11" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="X11" s="10">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Y11" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="Z11" s="10">
         <v>1.6</v>
       </c>
+      <c r="Z11" s="8">
+        <v>13.8</v>
+      </c>
       <c r="AA11" s="8">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="8">
         <v>0</v>
       </c>
       <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8">
         <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="C12" s="5">
+        <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>26</v>
       </c>
       <c r="E12" s="5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G12" s="5">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="H12" s="5">
-        <v>12.8</v>
-      </c>
-      <c r="I12" s="5">
         <v>5</v>
       </c>
+      <c r="I12" s="7">
+        <v>2.1</v>
+      </c>
       <c r="J12" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="K12" s="7">
         <v>4.8</v>
       </c>
-      <c r="L12" s="5">
+      <c r="K12" s="5">
         <v>43.7</v>
       </c>
+      <c r="L12" s="7">
+        <v>0.6</v>
+      </c>
       <c r="M12" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N12" s="7">
         <v>1.8</v>
       </c>
+      <c r="N12" s="5">
+        <v>34</v>
+      </c>
       <c r="O12" s="5">
-        <v>34</v>
+        <v>0.2</v>
       </c>
       <c r="P12" s="5">
         <v>0.2</v>
       </c>
       <c r="Q12" s="5">
+        <v>83.3</v>
+      </c>
+      <c r="R12" s="7">
         <v>0.2</v>
       </c>
-      <c r="R12" s="5">
-        <v>83.3</v>
-      </c>
       <c r="S12" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="T12" s="7">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U12" s="7">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="V12" s="7">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="W12" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="X12" s="7">
         <v>0.3</v>
       </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="7">
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7">
         <v>0.7</v>
       </c>
+      <c r="Z12" s="5">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="AA12" s="5">
-        <v>8.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="5">
         <v>0</v>
       </c>
       <c r="AC12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="5">
         <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="8">
+        <v>28</v>
+      </c>
       <c r="D13" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G13" s="8">
-        <v>6</v>
+        <v>11.7</v>
       </c>
       <c r="H13" s="8">
-        <v>11.7</v>
-      </c>
-      <c r="I13" s="8">
         <v>4.3</v>
       </c>
+      <c r="I13" s="10">
+        <v>1.6</v>
+      </c>
       <c r="J13" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="K13" s="10">
         <v>3.9</v>
       </c>
-      <c r="L13" s="8">
+      <c r="K13" s="8">
         <v>39.799999999999997</v>
       </c>
+      <c r="L13" s="10">
+        <v>1</v>
+      </c>
       <c r="M13" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="N13" s="8">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>66.7</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="10">
         <v>1</v>
       </c>
-      <c r="N13" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="O13" s="8">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="T13" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="V13" s="10">
         <v>0.2</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="R13" s="8">
-        <v>66.7</v>
-      </c>
-      <c r="S13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="T13" s="10">
-        <v>1</v>
-      </c>
-      <c r="U13" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="V13" s="10">
-        <v>0.3</v>
       </c>
       <c r="W13" s="10">
         <v>0.2</v>
       </c>
       <c r="X13" s="10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Z13" s="10">
         <v>0.7</v>
       </c>
+      <c r="Z13" s="8">
+        <v>6.9</v>
+      </c>
       <c r="AA13" s="8">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="8">
         <v>0</v>
       </c>
       <c r="AC13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="8">
         <v>-0.1</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C14" s="5">
+        <v>34</v>
+      </c>
       <c r="D14" s="5">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="H14" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="I14" s="5">
         <v>1.6</v>
       </c>
+      <c r="I14" s="7">
+        <v>0.6</v>
+      </c>
       <c r="J14" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="K14" s="7">
         <v>1.4</v>
       </c>
-      <c r="L14" s="5">
+      <c r="K14" s="5">
         <v>40.5</v>
       </c>
+      <c r="L14" s="7">
+        <v>0.4</v>
+      </c>
       <c r="M14" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="N14" s="7">
         <v>1</v>
       </c>
+      <c r="N14" s="5">
+        <v>46.2</v>
+      </c>
       <c r="O14" s="5">
-        <v>46.2</v>
+        <v>0.1</v>
       </c>
       <c r="P14" s="5">
         <v>0.1</v>
       </c>
       <c r="Q14" s="5">
+        <v>100</v>
+      </c>
+      <c r="R14" s="7">
         <v>0.1</v>
       </c>
-      <c r="R14" s="5">
-        <v>100</v>
-      </c>
       <c r="S14" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="V14" s="7">
         <v>0.1</v>
       </c>
-      <c r="T14" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="U14" s="7">
-        <v>1</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0.6</v>
-      </c>
       <c r="W14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="X14" s="7">
         <v>0.1</v>
       </c>
-      <c r="X14" s="7">
-        <v>0.3</v>
-      </c>
       <c r="Y14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="Z14" s="7">
         <v>1.1000000000000001</v>
       </c>
+      <c r="Z14" s="5">
+        <v>4.8</v>
+      </c>
       <c r="AA14" s="5">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="5">
         <v>0</v>
       </c>
       <c r="AC14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="5">
         <v>-0.3</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="C15" s="8">
+        <v>22</v>
+      </c>
       <c r="D15" s="8">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>
       </c>
       <c r="F15" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H15" s="8">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I15" s="8">
         <v>0</v>
@@ -2112,8 +2073,8 @@
       <c r="R15" s="8">
         <v>0</v>
       </c>
-      <c r="S15" s="8">
-        <v>0</v>
+      <c r="S15" s="10">
+        <v>0.3</v>
       </c>
       <c r="T15" s="10">
         <v>0.3</v>
@@ -2121,8 +2082,8 @@
       <c r="U15" s="10">
         <v>0.3</v>
       </c>
-      <c r="V15" s="10">
-        <v>0.3</v>
+      <c r="V15" s="8">
+        <v>0</v>
       </c>
       <c r="W15" s="8">
         <v>0</v>
@@ -2134,147 +2095,141 @@
         <v>0</v>
       </c>
       <c r="Z15" s="8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AA15" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="8">
         <v>0</v>
       </c>
       <c r="AC15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="8">
         <v>-0.7</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C16" s="5">
+        <v>19</v>
+      </c>
       <c r="D16" s="5">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
         <v>0.5</v>
       </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>1</v>
-      </c>
-      <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0.5</v>
+      <c r="X16" s="5">
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA16" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="5">
         <v>0</v>
       </c>
       <c r="AC16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="5">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11">
-        <v>14</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:29" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>30</v>
       </c>
+      <c r="C17" s="11">
+        <v>22</v>
+      </c>
       <c r="D17" s="11">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E17" s="11">
         <v>2</v>
       </c>
       <c r="F17" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H17" s="11">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
+      <c r="J17" s="13">
         <v>0.5</v>
       </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
       <c r="L17" s="11">
         <v>0</v>
       </c>
@@ -2296,14 +2251,14 @@
       <c r="R17" s="11">
         <v>0</v>
       </c>
-      <c r="S17" s="11">
-        <v>0</v>
+      <c r="S17" s="13">
+        <v>0.5</v>
       </c>
       <c r="T17" s="13">
         <v>0.5</v>
       </c>
-      <c r="U17" s="13">
-        <v>0.5</v>
+      <c r="U17" s="11">
+        <v>0</v>
       </c>
       <c r="V17" s="11">
         <v>0</v>
@@ -2318,220 +2273,217 @@
         <v>0</v>
       </c>
       <c r="Z17" s="11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA17" s="11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="11">
         <v>0</v>
       </c>
       <c r="AC17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="11">
         <v>-2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://stats.nba.com/player/203076/"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K2" r:id="rId4" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M2" r:id="rId5" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N2" r:id="rId6" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S2" r:id="rId7" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T2" r:id="rId8" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U2" r:id="rId9" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V2" r:id="rId10" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W2" r:id="rId11" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X2" r:id="rId12" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y2" r:id="rId13" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z2" r:id="rId14" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B3" r:id="rId15" display="https://stats.nba.com/player/2544/"/>
-    <hyperlink ref="C3" r:id="rId16" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J3" r:id="rId17" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K3" r:id="rId18" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M3" r:id="rId19" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N3" r:id="rId20" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S3" r:id="rId21" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T3" r:id="rId22" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U3" r:id="rId23" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V3" r:id="rId24" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W3" r:id="rId25" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X3" r:id="rId26" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y3" r:id="rId27" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z3" r:id="rId28" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B4" r:id="rId29" display="https://stats.nba.com/player/1628398/"/>
-    <hyperlink ref="C4" r:id="rId30" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J4" r:id="rId31" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K4" r:id="rId32" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M4" r:id="rId33" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N4" r:id="rId34" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S4" r:id="rId35" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T4" r:id="rId36" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U4" r:id="rId37" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V4" r:id="rId38" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W4" r:id="rId39" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X4" r:id="rId40" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y4" r:id="rId41" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z4" r:id="rId42" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B5" r:id="rId43" display="https://stats.nba.com/player/203484/"/>
-    <hyperlink ref="C5" r:id="rId44" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J5" r:id="rId45" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K5" r:id="rId46" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M5" r:id="rId47" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N5" r:id="rId48" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S5" r:id="rId49" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T5" r:id="rId50" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U5" r:id="rId51" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V5" r:id="rId52" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W5" r:id="rId53" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X5" r:id="rId54" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y5" r:id="rId55" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z5" r:id="rId56" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B6" r:id="rId57" display="https://stats.nba.com/player/201980/"/>
-    <hyperlink ref="C6" r:id="rId58" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J6" r:id="rId59" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K6" r:id="rId60" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M6" r:id="rId61" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N6" r:id="rId62" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S6" r:id="rId63" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T6" r:id="rId64" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U6" r:id="rId65" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V6" r:id="rId66" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W6" r:id="rId67" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X6" r:id="rId68" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y6" r:id="rId69" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z6" r:id="rId70" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B7" r:id="rId71" display="https://stats.nba.com/player/202340/"/>
-    <hyperlink ref="C7" r:id="rId72" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J7" r:id="rId73" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K7" r:id="rId74" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M7" r:id="rId75" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N7" r:id="rId76" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S7" r:id="rId77" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T7" r:id="rId78" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U7" r:id="rId79" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V7" r:id="rId80" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W7" r:id="rId81" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X7" r:id="rId82" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y7" r:id="rId83" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z7" r:id="rId84" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B8" r:id="rId85" display="https://stats.nba.com/player/2730/"/>
-    <hyperlink ref="C8" r:id="rId86" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J8" r:id="rId87" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K8" r:id="rId88" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M8" r:id="rId89" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N8" r:id="rId90" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S8" r:id="rId91" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T8" r:id="rId92" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U8" r:id="rId93" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V8" r:id="rId94" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W8" r:id="rId95" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X8" r:id="rId96" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y8" r:id="rId97" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z8" r:id="rId98" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B9" r:id="rId99" display="https://stats.nba.com/player/200765/"/>
-    <hyperlink ref="C9" r:id="rId100" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J9" r:id="rId101" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K9" r:id="rId102" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M9" r:id="rId103" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N9" r:id="rId104" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S9" r:id="rId105" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T9" r:id="rId106" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U9" r:id="rId107" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V9" r:id="rId108" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W9" r:id="rId109" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X9" r:id="rId110" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y9" r:id="rId111" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z9" r:id="rId112" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B10" r:id="rId113" display="https://stats.nba.com/player/201580/"/>
-    <hyperlink ref="C10" r:id="rId114" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J10" r:id="rId115" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K10" r:id="rId116" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M10" r:id="rId117" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N10" r:id="rId118" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S10" r:id="rId119" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T10" r:id="rId120" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U10" r:id="rId121" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V10" r:id="rId122" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W10" r:id="rId123" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X10" r:id="rId124" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y10" r:id="rId125" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z10" r:id="rId126" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B11" r:id="rId127" display="https://stats.nba.com/player/1627936/"/>
-    <hyperlink ref="C11" r:id="rId128" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J11" r:id="rId129" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K11" r:id="rId130" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M11" r:id="rId131" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N11" r:id="rId132" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S11" r:id="rId133" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T11" r:id="rId134" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U11" r:id="rId135" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V11" r:id="rId136" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W11" r:id="rId137" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X11" r:id="rId138" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y11" r:id="rId139" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z11" r:id="rId140" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B12" r:id="rId141" display="https://stats.nba.com/player/1626188/"/>
-    <hyperlink ref="C12" r:id="rId142" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J12" r:id="rId143" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K12" r:id="rId144" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M12" r:id="rId145" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N12" r:id="rId146" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S12" r:id="rId147" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T12" r:id="rId148" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U12" r:id="rId149" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V12" r:id="rId150" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W12" r:id="rId151" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X12" r:id="rId152" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z12" r:id="rId153" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B13" r:id="rId154" display="https://stats.nba.com/player/203584/"/>
-    <hyperlink ref="C13" r:id="rId155" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J13" r:id="rId156" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K13" r:id="rId157" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M13" r:id="rId158" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N13" r:id="rId159" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S13" r:id="rId160" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T13" r:id="rId161" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U13" r:id="rId162" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V13" r:id="rId163" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W13" r:id="rId164" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X13" r:id="rId165" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y13" r:id="rId166" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z13" r:id="rId167" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B14" r:id="rId168" display="https://stats.nba.com/player/201162/"/>
-    <hyperlink ref="C14" r:id="rId169" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="J14" r:id="rId170" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="K14" r:id="rId171" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="M14" r:id="rId172" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N14" r:id="rId173" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="S14" r:id="rId174" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T14" r:id="rId175" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U14" r:id="rId176" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V14" r:id="rId177" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="W14" r:id="rId178" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X14" r:id="rId179" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Y14" r:id="rId180" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="Z14" r:id="rId181" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B15" r:id="rId182" display="https://stats.nba.com/player/1628961/"/>
-    <hyperlink ref="C15" r:id="rId183" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="T15" r:id="rId184" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628961&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U15" r:id="rId185" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628961&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V15" r:id="rId186" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628961&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B16" r:id="rId187" display="https://stats.nba.com/player/1629659/"/>
-    <hyperlink ref="C16" r:id="rId188" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="K16" r:id="rId189" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="N16" r:id="rId190" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="V16" r:id="rId191" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="X16" r:id="rId192" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="B17" r:id="rId193" display="https://stats.nba.com/player/1629668/"/>
-    <hyperlink ref="C17" r:id="rId194" display="https://stats.nba.com/team/1610612747/traditional/"/>
-    <hyperlink ref="K17" r:id="rId195" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629668&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="T17" r:id="rId196" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629668&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
-    <hyperlink ref="U17" r:id="rId197" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629668&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://stats.nba.com/player/203076/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I2" r:id="rId3" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J2" r:id="rId4" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L2" r:id="rId5" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M2" r:id="rId6" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R2" r:id="rId7" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S2" r:id="rId8" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T2" r:id="rId9" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U2" r:id="rId10" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V2" r:id="rId11" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W2" r:id="rId12" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X2" r:id="rId13" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y2" r:id="rId14" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203076&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A3" r:id="rId15" display="https://stats.nba.com/player/2544/"/>
+    <hyperlink ref="B3" r:id="rId16" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I3" r:id="rId17" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J3" r:id="rId18" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L3" r:id="rId19" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M3" r:id="rId20" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R3" r:id="rId21" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S3" r:id="rId22" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T3" r:id="rId23" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U3" r:id="rId24" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V3" r:id="rId25" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W3" r:id="rId26" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X3" r:id="rId27" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y3" r:id="rId28" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2544&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A4" r:id="rId29" display="https://stats.nba.com/player/1628398/"/>
+    <hyperlink ref="B4" r:id="rId30" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I4" r:id="rId31" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J4" r:id="rId32" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L4" r:id="rId33" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M4" r:id="rId34" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R4" r:id="rId35" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S4" r:id="rId36" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T4" r:id="rId37" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U4" r:id="rId38" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V4" r:id="rId39" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W4" r:id="rId40" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X4" r:id="rId41" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y4" r:id="rId42" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628398&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A5" r:id="rId43" display="https://stats.nba.com/player/203484/"/>
+    <hyperlink ref="B5" r:id="rId44" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I5" r:id="rId45" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J5" r:id="rId46" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L5" r:id="rId47" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M5" r:id="rId48" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R5" r:id="rId49" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S5" r:id="rId50" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T5" r:id="rId51" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U5" r:id="rId52" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V5" r:id="rId53" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W5" r:id="rId54" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X5" r:id="rId55" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y5" r:id="rId56" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203484&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A6" r:id="rId57" display="https://stats.nba.com/player/201980/"/>
+    <hyperlink ref="B6" r:id="rId58" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I6" r:id="rId59" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J6" r:id="rId60" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L6" r:id="rId61" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M6" r:id="rId62" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R6" r:id="rId63" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S6" r:id="rId64" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T6" r:id="rId65" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U6" r:id="rId66" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V6" r:id="rId67" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W6" r:id="rId68" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X6" r:id="rId69" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y6" r:id="rId70" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201980&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A7" r:id="rId71" display="https://stats.nba.com/player/202340/"/>
+    <hyperlink ref="B7" r:id="rId72" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I7" r:id="rId73" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J7" r:id="rId74" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L7" r:id="rId75" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M7" r:id="rId76" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R7" r:id="rId77" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S7" r:id="rId78" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T7" r:id="rId79" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U7" r:id="rId80" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V7" r:id="rId81" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W7" r:id="rId82" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X7" r:id="rId83" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y7" r:id="rId84" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=202340&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A8" r:id="rId85" display="https://stats.nba.com/player/2730/"/>
+    <hyperlink ref="B8" r:id="rId86" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I8" r:id="rId87" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J8" r:id="rId88" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L8" r:id="rId89" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M8" r:id="rId90" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R8" r:id="rId91" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S8" r:id="rId92" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T8" r:id="rId93" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U8" r:id="rId94" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V8" r:id="rId95" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W8" r:id="rId96" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X8" r:id="rId97" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y8" r:id="rId98" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=2730&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A9" r:id="rId99" display="https://stats.nba.com/player/200765/"/>
+    <hyperlink ref="B9" r:id="rId100" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I9" r:id="rId101" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J9" r:id="rId102" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L9" r:id="rId103" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M9" r:id="rId104" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R9" r:id="rId105" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S9" r:id="rId106" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T9" r:id="rId107" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U9" r:id="rId108" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V9" r:id="rId109" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W9" r:id="rId110" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X9" r:id="rId111" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y9" r:id="rId112" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=200765&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A10" r:id="rId113" display="https://stats.nba.com/player/201580/"/>
+    <hyperlink ref="B10" r:id="rId114" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I10" r:id="rId115" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J10" r:id="rId116" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L10" r:id="rId117" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M10" r:id="rId118" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R10" r:id="rId119" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S10" r:id="rId120" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T10" r:id="rId121" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U10" r:id="rId122" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V10" r:id="rId123" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W10" r:id="rId124" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X10" r:id="rId125" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y10" r:id="rId126" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201580&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A11" r:id="rId127" display="https://stats.nba.com/player/1627936/"/>
+    <hyperlink ref="B11" r:id="rId128" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I11" r:id="rId129" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J11" r:id="rId130" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L11" r:id="rId131" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M11" r:id="rId132" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R11" r:id="rId133" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S11" r:id="rId134" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T11" r:id="rId135" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U11" r:id="rId136" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V11" r:id="rId137" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W11" r:id="rId138" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X11" r:id="rId139" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y11" r:id="rId140" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1627936&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A12" r:id="rId141" display="https://stats.nba.com/player/1626188/"/>
+    <hyperlink ref="B12" r:id="rId142" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I12" r:id="rId143" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J12" r:id="rId144" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L12" r:id="rId145" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M12" r:id="rId146" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R12" r:id="rId147" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S12" r:id="rId148" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T12" r:id="rId149" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U12" r:id="rId150" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V12" r:id="rId151" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W12" r:id="rId152" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y12" r:id="rId153" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1626188&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A13" r:id="rId154" display="https://stats.nba.com/player/203584/"/>
+    <hyperlink ref="B13" r:id="rId155" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I13" r:id="rId156" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J13" r:id="rId157" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L13" r:id="rId158" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M13" r:id="rId159" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R13" r:id="rId160" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S13" r:id="rId161" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T13" r:id="rId162" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U13" r:id="rId163" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V13" r:id="rId164" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W13" r:id="rId165" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X13" r:id="rId166" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y13" r:id="rId167" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=203584&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A14" r:id="rId168" display="https://stats.nba.com/player/201162/"/>
+    <hyperlink ref="B14" r:id="rId169" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="I14" r:id="rId170" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGM&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="J14" r:id="rId171" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="L14" r:id="rId172" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3M&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M14" r:id="rId173" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="R14" r:id="rId174" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=OREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S14" r:id="rId175" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T14" r:id="rId176" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U14" r:id="rId177" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="V14" r:id="rId178" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=TOV&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W14" r:id="rId179" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="X14" r:id="rId180" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=BLK&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="Y14" r:id="rId181" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=201162&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=PF&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A15" r:id="rId182" display="https://stats.nba.com/player/1628961/"/>
+    <hyperlink ref="B15" r:id="rId183" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="S15" r:id="rId184" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628961&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T15" r:id="rId185" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628961&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U15" r:id="rId186" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1628961&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A16" r:id="rId187" display="https://stats.nba.com/player/1629659/"/>
+    <hyperlink ref="B16" r:id="rId188" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="J16" r:id="rId189" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="M16" r:id="rId190" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FG3A&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="U16" r:id="rId191" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=AST&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="W16" r:id="rId192" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629659&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=STL&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="A17" r:id="rId193" display="https://stats.nba.com/player/1629668/"/>
+    <hyperlink ref="B17" r:id="rId194" display="https://stats.nba.com/team/1610612747/traditional/"/>
+    <hyperlink ref="J17" r:id="rId195" display="https://stats.nba.com/events/?flag=3&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629668&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=FGA&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="S17" r:id="rId196" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629668&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=DREB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
+    <hyperlink ref="T17" r:id="rId197" display="https://stats.nba.com/events/?flag=1&amp;CFID=&amp;CFPARAMS=&amp;PlayerID=1629668&amp;TeamID=1610612747&amp;GameID=&amp;ContextMeasure=REB&amp;Season=2019-20&amp;SeasonType=Regular%20Season&amp;LeagueID=00&amp;PerMode=PerGame&amp;GameSegment=&amp;Period=0&amp;PlayerPosition=&amp;StarterBench=&amp;PlayerExperience=&amp;OpponentTeamID=0&amp;VsConference=&amp;VsDivision=&amp;Outcome=&amp;Location=&amp;SeasonSegment=&amp;Month=0&amp;LastNGames=0&amp;PlusMinus=N&amp;PaceAdjust=N&amp;Rank=N&amp;GameScope=&amp;DateFrom=&amp;DateTo=&amp;ShotClockRange=&amp;Conference=&amp;Division=&amp;PORound=0&amp;DraftYear=&amp;DraftPick=&amp;College=&amp;Country=&amp;Height=&amp;Weight=&amp;TwoWay=0&amp;MeasureType=Base&amp;section=players"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId198"/>
@@ -9553,8 +9505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
